--- a/import/raw_data/irena/turnover_per_unit_of_energy_saved.xlsx
+++ b/import/raw_data/irena/turnover_per_unit_of_energy_saved.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_env\workspace\micat\back_end\import\public\irena\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\irena\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D37ED8-FD3D-4EE7-8655-7BB99424F24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="57570" windowHeight="9150"/>
+    <workbookView xWindow="5928" yWindow="3384" windowWidth="46080" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,7 +83,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -359,19 +360,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +392,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -411,7 +412,7 @@
         <v>15301374.597857011</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -431,7 +432,7 @@
         <v>30220547.180346176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -451,7 +452,7 @@
         <v>30220547.180346176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -471,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -491,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -511,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -531,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -551,9 +552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -571,9 +572,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -591,9 +592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -611,9 +612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -631,9 +632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -651,9 +652,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -668,66 +669,6 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
         <v>0</v>
       </c>
     </row>
